--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-617565.8132313053</v>
+        <v>-585916.184269093</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9409507.184263511</v>
+        <v>9440695.637032941</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>104.7827402069272</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>54.59028504461708</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.0995941873622</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>82.15951551894702</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>245.6396217305145</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>103.1764748890657</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>14.36714125262151</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>261.455795727585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>274.8290167448433</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>30.49044294080896</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773013</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>94.50264048967881</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855482</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479132298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170484</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>30.11288841831316</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479132298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>67.68074767021373</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,19 +2482,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>64.90507698037602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>19.80087630034413</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>24.40875262509064</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800052</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170425</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613754</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934607</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,7 +3907,7 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
@@ -4144,7 +4144,7 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1030.653802879758</v>
+        <v>1269.14871851109</v>
       </c>
       <c r="C2" t="n">
-        <v>924.8126511555888</v>
+        <v>1235.046649734917</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>799.1368649093615</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>365.3621200676567</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>341.5350945172685</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172685</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048472</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048472</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134026</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134026</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134026</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134026</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>607.5718832905874</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301586</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312584</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271179</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024236</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208073</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2536.595124208073</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2536.595124208073</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>2173.978174141899</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>2118.836472076629</v>
       </c>
       <c r="X2" t="n">
-        <v>1057.158688984204</v>
+        <v>1699.69400865594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.912969324261</v>
+        <v>1695.448288995998</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517775</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884198</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.029934934973</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>262.9095202619267</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780884</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427225</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048472</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094232</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871546</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098153</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098153</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098153</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098153</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098153</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523198</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315406</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.4818394589739</v>
+        <v>872.3225942410518</v>
       </c>
       <c r="C4" t="n">
-        <v>509.4818394589739</v>
+        <v>699.7608827242767</v>
       </c>
       <c r="D4" t="n">
-        <v>343.6038466604966</v>
+        <v>533.8828899257994</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>364.1248861765367</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>192.3071142701102</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>192.3071142701102</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048472</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048472</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251746</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>413.7430796963101</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>831.9529614642712</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1242.619276806136</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1684.87807996378</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2104.547329189561</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159903</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024236</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2620.246998024236</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2620.246998024236</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2374.367551602691</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>2095.934550855796</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1808.979042726227</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1536.952638312518</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4712490740719</v>
+        <v>1291.560883645931</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.4818394589739</v>
+        <v>1064.141212960039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>791.4099871095558</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>980.4585186511705</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C8" t="n">
-        <v>946.3564498749979</v>
+        <v>902.126019690804</v>
       </c>
       <c r="D8" t="n">
-        <v>914.4870690898465</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>884.7527282885458</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>456.8852986977535</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>55.48746732101739</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948051</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>40.97520342948051</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>548.0433458693018</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>548.0433458693018</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>548.0433458693018</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>548.0433458693018</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1034.623886594383</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1541.692029034204</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2048.760171474025</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474025</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1789.537868791042</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1426.920918724869</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1426.105868176306</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>1411.003808796021</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1002.717685095674</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326804</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.0388765899381</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959716</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768469</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644307</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948051</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>309.1383701417255</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>727.3482519096866</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1186.8321190906</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1629.090922248244</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2048.760171474025</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474025</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474025</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2048.760171474025</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2048.760171474025</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2048.760171474025</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2048.760171474025</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1784.663408112828</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1625.999150697065</v>
+        <v>2097.768580890576</v>
       </c>
       <c r="C11" t="n">
-        <v>1187.856677880488</v>
+        <v>1659.626108073999</v>
       </c>
       <c r="D11" t="n">
-        <v>751.9468930549328</v>
+        <v>1223.716323248444</v>
       </c>
       <c r="E11" t="n">
-        <v>474.3418256358991</v>
+        <v>789.9415784067389</v>
       </c>
       <c r="F11" t="n">
-        <v>474.3418256358991</v>
+        <v>362.0741488159467</v>
       </c>
       <c r="G11" t="n">
-        <v>72.94399425916298</v>
+        <v>362.0741488159467</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916298</v>
+        <v>72.94399425916296</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916298</v>
+        <v>72.94399425916296</v>
       </c>
       <c r="J11" t="n">
         <v>508.1986817120808</v>
       </c>
       <c r="K11" t="n">
-        <v>508.1986817120808</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>508.1986817120808</v>
+        <v>2103.2369874131</v>
       </c>
       <c r="M11" t="n">
-        <v>1410.880610669223</v>
+        <v>2103.2369874131</v>
       </c>
       <c r="N11" t="n">
-        <v>1410.880610669223</v>
+        <v>2103.2369874131</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413101</v>
+        <v>2103.2369874131</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246497</v>
+        <v>2931.546862246496</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205092</v>
+        <v>3478.045648205091</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958149</v>
+        <v>3647.199712958148</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.199712958149</v>
+        <v>3563.547839141985</v>
       </c>
       <c r="T11" t="n">
-        <v>3647.199712958149</v>
+        <v>3563.547839141985</v>
       </c>
       <c r="U11" t="n">
-        <v>3647.199712958149</v>
+        <v>3304.325536459001</v>
       </c>
       <c r="V11" t="n">
-        <v>3284.582762891976</v>
+        <v>2941.708586392828</v>
       </c>
       <c r="W11" t="n">
-        <v>2879.727308303009</v>
+        <v>2536.853131803861</v>
       </c>
       <c r="X11" t="n">
-        <v>2460.584844882319</v>
+        <v>2506.054704590922</v>
       </c>
       <c r="Y11" t="n">
-        <v>2052.298721181973</v>
+        <v>2097.768580890576</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504558</v>
+        <v>579.1157392504557</v>
       </c>
       <c r="C12" t="n">
-        <v>472.6592780870981</v>
+        <v>472.659278087098</v>
       </c>
       <c r="D12" t="n">
         <v>377.5689892336513</v>
@@ -5112,31 +5112,31 @@
         <v>114.6796464429505</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916298</v>
+        <v>72.94399425916296</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962057</v>
+        <v>99.00766741962056</v>
       </c>
       <c r="J12" t="n">
         <v>423.5659923858329</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011557</v>
+        <v>1078.272039011556</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011557</v>
+        <v>1078.272039011556</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011557</v>
+        <v>1078.272039011556</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011557</v>
+        <v>1078.272039011556</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011557</v>
+        <v>1078.272039011556</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.010977643632</v>
@@ -5148,7 +5148,7 @@
         <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516957</v>
+        <v>1542.549674516956</v>
       </c>
       <c r="U12" t="n">
         <v>1366.213127516925</v>
@@ -5157,13 +5157,13 @@
         <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121183</v>
+        <v>981.7728553121181</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509982</v>
+        <v>826.9054195509981</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.419640330219</v>
+        <v>700.4196403302188</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4400313360943</v>
+        <v>782.4378316767751</v>
       </c>
       <c r="C13" t="n">
-        <v>750.8783198193192</v>
+        <v>609.87612016</v>
       </c>
       <c r="D13" t="n">
-        <v>585.000327020842</v>
+        <v>443.9981273615228</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2423232715792</v>
+        <v>274.24012361226</v>
       </c>
       <c r="F13" t="n">
-        <v>238.5352692333353</v>
+        <v>97.53306957401628</v>
       </c>
       <c r="G13" t="n">
-        <v>72.94399425916298</v>
+        <v>72.94399425916296</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916298</v>
+        <v>72.94399425916296</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916298</v>
+        <v>72.94399425916296</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238528</v>
@@ -5221,28 +5221,28 @@
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2668.185782867335</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.185782867335</v>
+        <v>2530.362235459959</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.484988697734</v>
+        <v>2284.482789038414</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.051987950839</v>
+        <v>2006.04978829152</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.096479821269</v>
+        <v>1719.09428016195</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.070075407561</v>
+        <v>1447.067875748241</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.678320740973</v>
+        <v>1201.676121081654</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.258650055081</v>
+        <v>974.2564503957622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5273,55 +5273,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903953</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736203</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883919</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716168</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731395</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238768</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F19" t="n">
-        <v>126.849915585633</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5707,16 +5707,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436405</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,13 +5759,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C22" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>863.1668995435763</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>697.288906745099</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>527.5309029958362</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>350.8238489575924</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1227.547229779339</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6361,7 +6361,7 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
         <v>614.3171730324584</v>
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>863.654591298533</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>697.7765985000557</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,16 +6710,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6838,16 +6838,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883913</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716163</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731389</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238762</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856324</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407378</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,25 +7178,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7309,70 +7309,70 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850154</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1689.869226339287</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2815.600209775734</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7546,19 +7546,19 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7567,19 +7567,19 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758678</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206708</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803008</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1228.461808239092</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1228.461808239092</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J45" t="n">
         <v>448.1887018024878</v>
@@ -7786,22 +7786,22 @@
         <v>905.6649082936669</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080657</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716792</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463115</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850153</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882659</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850351</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506059</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.061749506059</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.061749506059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509823699</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,16 +8140,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>414.8144599412772</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685063</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>491.4954956819005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>270.8718855679243</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>768.3717310533752</v>
       </c>
       <c r="M11" t="n">
-        <v>911.7999282395373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>699.349875498867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>524.0123721920322</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11297,16 +11297,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>154.6079806484444</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>384.4605958456734</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.146865729424294</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>69.7165723808137</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.861621967691462e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>195.0325855607196</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>103.1553467313936</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.1344859240865</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>143.6516710866795</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>141.6500182959539</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>808074.3468178483</v>
+        <v>819907.2758489341</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>808074.3468178483</v>
+        <v>820545.8488755156</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812581.2765400971</v>
+        <v>820545.8488755156</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652554.326274669</v>
+        <v>652554.3262746688</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>831137.8628977109</v>
+        <v>831137.8628977111</v>
       </c>
     </row>
     <row r="10">
@@ -26347,7 +26347,7 @@
         <v>158057.2752412056</v>
       </c>
       <c r="N2" t="n">
-        <v>160844.1959671228</v>
+        <v>160844.1959671225</v>
       </c>
       <c r="O2" t="n">
         <v>160844.1959671225</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.258679719</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.34692894945</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477412</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543117</v>
+        <v>72938.04361534375</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540559</v>
+        <v>105000.4827540561</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877633</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375546</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401242</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400234</v>
+        <v>60876.72976950118</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.1476371608</v>
+        <v>88373.14763716086</v>
       </c>
       <c r="O3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>158848.1923688626</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>184220.109556457</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>53389.63827696991</v>
+        <v>53389.6382769699</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
@@ -26448,13 +26448,13 @@
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933284</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213677</v>
+        <v>81349.2499521368</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213682</v>
+        <v>81349.2499521368</v>
       </c>
       <c r="P4" t="n">
         <v>81349.2499521368</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996838</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640519</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696386</v>
+        <v>55437.43563696384</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.61472608971</v>
+      </c>
+      <c r="O5" t="n">
+        <v>75515.61472608971</v>
+      </c>
+      <c r="P5" t="n">
         <v>75515.61472608973</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
-      </c>
-      <c r="P5" t="n">
-        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240600.7190763254</v>
+        <v>-290985.6094514275</v>
       </c>
       <c r="C6" t="n">
-        <v>-98409.4184166154</v>
+        <v>-74028.31677625842</v>
       </c>
       <c r="D6" t="n">
-        <v>-115447.2389905138</v>
+        <v>-70004.96984730904</v>
       </c>
       <c r="E6" t="n">
-        <v>-104045.7046036015</v>
+        <v>-57975.26208382092</v>
       </c>
       <c r="F6" t="n">
-        <v>-92662.14440797553</v>
+        <v>-92685.36874735837</v>
       </c>
       <c r="G6" t="n">
-        <v>12338.33834608039</v>
+        <v>12315.11400669768</v>
       </c>
       <c r="H6" t="n">
-        <v>12338.33834608036</v>
+        <v>12315.1140066977</v>
       </c>
       <c r="I6" t="n">
-        <v>12338.3383460803</v>
+        <v>12315.11400669765</v>
       </c>
       <c r="J6" t="n">
-        <v>-98676.12699890989</v>
+        <v>-159077.8623810656</v>
       </c>
       <c r="K6" t="n">
-        <v>12338.3383460803</v>
+        <v>9109.992659322112</v>
       </c>
       <c r="L6" t="n">
-        <v>-9906.888917932112</v>
+        <v>12315.11400669769</v>
       </c>
       <c r="M6" t="n">
-        <v>-87246.04352792204</v>
+        <v>-48561.61576280352</v>
       </c>
       <c r="N6" t="n">
-        <v>-84393.81634826453</v>
+        <v>-84393.81634826484</v>
       </c>
       <c r="O6" t="n">
-        <v>3979.331288895948</v>
+        <v>3979.331288895992</v>
       </c>
       <c r="P6" t="n">
-        <v>3979.33128889605</v>
+        <v>3979.331288896035</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874738</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506059</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685063</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395373</v>
+        <v>911.7999282395369</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506059</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179799</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840203</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710309</v>
+        <v>244.28472163168</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452081</v>
+        <v>366.4605751452086</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.061749506059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179799</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840203</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710307</v>
+        <v>244.28472163168</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081862</v>
+        <v>307.7838677081863</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179799</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840203</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710309</v>
+        <v>244.28472163168</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452081</v>
+        <v>366.4605751452086</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>328.9783078814837</v>
-      </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>346.2166149984599</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>4.84038931049912</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.9859584600858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>188.1214263578964</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>328.3742120882342</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>271.8717117585944</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.850344641986396</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850351</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506059</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.061749506059</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.061749506059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509823699</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,19 +34860,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>414.8144599412772</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685063</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>491.4954956819005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>270.8718855679243</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>768.3717310533752</v>
       </c>
       <c r="M11" t="n">
-        <v>911.7999282395373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>699.349875498867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35723,7 +35723,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>661.3192390158824</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,7 +35960,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
         <v>661.3192390158824</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,10 +37546,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552537</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209015</v>
@@ -37780,19 +37780,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>524.0123721920322</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778282</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
